--- a/Development Timeline.xlsx
+++ b/Development Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuhdIkmal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F42CCE-3024-4592-8202-95B6F28E64FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9765659-C5AB-4556-99AE-C03D4E5712E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F205B04-C2DE-4ABF-951A-6962A21E9518}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>TASK</t>
   </si>
@@ -97,13 +97,16 @@
     <t>completed</t>
   </si>
   <si>
-    <t>debugging</t>
-  </si>
-  <si>
     <t>ASSIGNED TO</t>
   </si>
   <si>
     <t>Estimated time (days)</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -598,21 +601,21 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1035,7 +1038,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,26 +1085,26 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:58" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:58" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1172,12 +1175,12 @@
       <c r="BE4" s="28"/>
     </row>
     <row r="5" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="50" t="s">
         <v>9</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
@@ -1251,42 +1254,42 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="51">
+        <v>19</v>
+      </c>
+      <c r="G6" s="47">
         <v>29</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="47">
         <v>30</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="47">
         <v>31</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="47">
         <v>1</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="47">
         <v>2</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="47">
         <v>3</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="47">
         <v>4</v>
       </c>
-      <c r="N6" s="51">
+      <c r="N6" s="47">
         <v>5</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="47">
         <v>6</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="47">
         <v>7</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="47">
         <v>8</v>
       </c>
-      <c r="R6" s="51">
+      <c r="R6" s="47">
         <v>9</v>
       </c>
       <c r="S6" s="34"/>
@@ -1417,14 +1420,14 @@
       <c r="AM7" s="7"/>
     </row>
     <row r="8" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -1475,7 +1478,7 @@
       <c r="E9" s="41">
         <v>43860</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="46">
         <v>2</v>
       </c>
       <c r="G9" s="44"/>
@@ -1520,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="41">
         <v>43861</v>
@@ -1528,7 +1531,7 @@
       <c r="E10" s="41">
         <v>43865</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="46">
         <v>5</v>
       </c>
       <c r="G10" s="22"/>
@@ -1572,17 +1575,25 @@
       <c r="B11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="49"/>
+      <c r="C11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="41">
+        <v>43861</v>
+      </c>
+      <c r="E11" s="41">
+        <v>43865</v>
+      </c>
+      <c r="F11" s="46">
+        <v>5</v>
+      </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -1618,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12" s="41">
         <v>43859</v>
@@ -1626,7 +1637,7 @@
       <c r="E12" s="41">
         <v>43865</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="46">
         <v>7</v>
       </c>
       <c r="G12" s="44"/>
@@ -1671,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13" s="41">
         <v>43862</v>
@@ -1679,7 +1690,7 @@
       <c r="E13" s="41">
         <v>43865</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="46">
         <v>4</v>
       </c>
       <c r="G13" s="22"/>

--- a/Development Timeline.xlsx
+++ b/Development Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuhdIkmal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9765659-C5AB-4556-99AE-C03D4E5712E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B818BDA-F4E0-4388-98D9-FDBF99AC4322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F205B04-C2DE-4ABF-951A-6962A21E9518}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     <numFmt numFmtId="165" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +242,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -293,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -455,6 +462,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -480,7 +500,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -598,9 +618,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,6 +633,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1038,7 +1061,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,26 +1108,26 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:58" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:58" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1175,28 +1198,28 @@
       <c r="BE4" s="28"/>
     </row>
     <row r="5" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
       <c r="U5" s="32"/>
@@ -1256,40 +1279,40 @@
       <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="46">
         <v>29</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="46">
         <v>30</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="46">
         <v>31</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="46">
         <v>1</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="46">
         <v>2</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="46">
         <v>3</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="46">
         <v>4</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="46">
         <v>5</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="46">
         <v>6</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>7</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="46">
         <v>8</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="46">
         <v>9</v>
       </c>
       <c r="S6" s="34"/>
@@ -1420,14 +1443,14 @@
       <c r="AM7" s="7"/>
     </row>
     <row r="8" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -1478,12 +1501,12 @@
       <c r="E9" s="41">
         <v>43860</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>2</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
@@ -1531,12 +1554,12 @@
       <c r="E10" s="41">
         <v>43865</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>5</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="44"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
@@ -1584,12 +1607,12 @@
       <c r="E11" s="41">
         <v>43865</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>5</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="44"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
@@ -1637,12 +1660,12 @@
       <c r="E12" s="41">
         <v>43865</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>7</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
@@ -1690,7 +1713,7 @@
       <c r="E13" s="41">
         <v>43865</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>4</v>
       </c>
       <c r="G13" s="22"/>
@@ -1901,6 +1924,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Development Timeline.xlsx
+++ b/Development Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MuhdIkmal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B818BDA-F4E0-4388-98D9-FDBF99AC4322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A073C265-0852-47A5-B6D2-45BCDF9C0DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F205B04-C2DE-4ABF-951A-6962A21E9518}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>TASK</t>
   </si>
@@ -106,7 +106,10 @@
     <t>in progress</t>
   </si>
   <si>
-    <t>testing</t>
+    <t>unit testing</t>
+  </si>
+  <si>
+    <t>231/1/2020</t>
   </si>
 </sst>
 </file>
@@ -624,6 +627,12 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,12 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1061,7 +1064,7 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,26 +1111,26 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:58" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:58" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -1198,28 +1201,28 @@
       <c r="BE4" s="28"/>
     </row>
     <row r="5" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
       <c r="U5" s="32"/>
@@ -1443,14 +1446,14 @@
       <c r="AM7" s="7"/>
     </row>
     <row r="8" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -1496,17 +1499,17 @@
         <v>17</v>
       </c>
       <c r="D9" s="41">
-        <v>43859</v>
+        <v>43861</v>
       </c>
       <c r="E9" s="41">
         <v>43860</v>
       </c>
       <c r="F9" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
@@ -1559,7 +1562,7 @@
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
@@ -1612,7 +1615,7 @@
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
@@ -1654,18 +1657,18 @@
       <c r="C12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="41">
-        <v>43859</v>
+      <c r="D12" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="41">
         <v>43865</v>
       </c>
       <c r="F12" s="45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
